--- a/HelaMedical/File/AlcoReport.xlsx
+++ b/HelaMedical/File/AlcoReport.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Id</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t xml:space="preserve">Регистратор </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Год на момент постановки </t>
   </si>
 </sst>
 </file>
@@ -497,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX1"/>
+  <dimension ref="A1:AY1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="A2" sqref="A2:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,7 +511,7 @@
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -657,6 +660,9 @@
         <v>48</v>
       </c>
       <c r="AX1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY1" s="1" t="s">
         <v>49</v>
       </c>
     </row>

--- a/HelaMedical/File/AlcoReport.xlsx
+++ b/HelaMedical/File/AlcoReport.xlsx
@@ -171,7 +171,7 @@
     <t xml:space="preserve">Регистратор </t>
   </si>
   <si>
-    <t xml:space="preserve">Год на момент постановки </t>
+    <t xml:space="preserve">Год учета </t>
   </si>
 </sst>
 </file>
@@ -502,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD15"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AX2" sqref="AX2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
